--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BD76C-0C63-4D27-ABC8-7D584078A874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5071094-A988-45D2-A005-6B8BEB419692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="118">
   <si>
     <t>朱峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,26 @@
     <t>自费药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>华东医药费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佑押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东护理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佑护理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -831,6 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,17 +881,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,70 +1680,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="46" t="str">
         <f>'2023-1-14'!A4</f>
         <v>朱峰</v>
@@ -1763,7 +1786,7 @@
       <c r="M4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="76"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
@@ -2271,39 +2294,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -2383,14 +2406,14 @@
         <f t="shared" ref="I4:I26" si="0">E4/$E$36</f>
         <v>8.2295991071179991E-2</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E10)</f>
         <v>492486.212</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>13669.95</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>506156.16200000001</v>
       </c>
@@ -2423,9 +2446,9 @@
         <f t="shared" si="0"/>
         <v>2.393132059030564E-2</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -2455,9 +2478,9 @@
         <f t="shared" si="0"/>
         <v>5.0114328419436457E-2</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -2487,9 +2510,9 @@
         <f t="shared" si="0"/>
         <v>9.1096179154500755E-3</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -2519,9 +2542,9 @@
         <f t="shared" si="0"/>
         <v>0.1265181483291139</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2542,9 +2565,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -2574,9 +2597,9 @@
         <f t="shared" si="0"/>
         <v>5.9846875038013295E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -2593,9 +2616,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13" t="s">
         <v>33</v>
       </c>
@@ -2634,14 +2657,14 @@
         <f t="shared" si="0"/>
         <v>9.1096179154500755E-3</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="84">
         <f>SUM(E12:E18)</f>
         <v>317721.5</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="85">
         <v>11905.14</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="84">
         <f>J12+K12</f>
         <v>329626.64</v>
       </c>
@@ -2674,9 +2697,9 @@
         <f t="shared" si="0"/>
         <v>9.760054064267891E-2</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="81"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="84"/>
       <c r="N13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2706,9 +2729,9 @@
         <f t="shared" si="0"/>
         <v>4.786264118061128E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" t="s">
         <v>34</v>
       </c>
@@ -2738,9 +2761,9 @@
         <f t="shared" si="0"/>
         <v>1.8082391539190334E-2</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>35</v>
       </c>
@@ -2770,9 +2793,9 @@
         <f t="shared" si="0"/>
         <v>5.4314810958869211E-2</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E17" s="22">
@@ -2783,9 +2806,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E18" s="22">
@@ -2796,9 +2819,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2832,14 +2855,14 @@
         <f t="shared" si="0"/>
         <v>0.25303268195726702</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="80">
         <f>SUM(E19:E28)</f>
         <v>549487.46</v>
       </c>
-      <c r="K19" s="79">
+      <c r="K19" s="80">
         <v>22509.45</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="80">
         <f>J19+K19</f>
         <v>571996.90999999992</v>
       </c>
@@ -2867,9 +2890,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -2890,9 +2913,9 @@
         <f t="shared" si="0"/>
         <v>2.2183691256212393E-2</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -2913,9 +2936,9 @@
         <f t="shared" si="0"/>
         <v>1.7476579088043981E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -2936,9 +2959,9 @@
         <f t="shared" si="0"/>
         <v>8.0847858999619424E-3</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" s="4" t="s">
         <v>38</v>
       </c>
@@ -2966,9 +2989,9 @@
         <f t="shared" si="0"/>
         <v>1.5537499189228289E-2</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2992,9 +3015,9 @@
         <f t="shared" si="0"/>
         <v>6.152492495044995E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" t="s">
         <v>40</v>
       </c>
@@ -3021,9 +3044,9 @@
         <f t="shared" si="0"/>
         <v>1.4695973945784108E-2</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>41</v>
       </c>
@@ -3032,9 +3055,9 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>36</v>
       </c>
@@ -3051,9 +3074,9 @@
         <f t="shared" ref="I28:I35" si="4">E28/$E$36</f>
         <v>0</v>
       </c>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>37</v>
       </c>
@@ -3092,14 +3115,14 @@
         <f t="shared" si="4"/>
         <v>1.4584532572288955E-2</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="80">
         <f>SUM(E29:E31)</f>
         <v>20416</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="80">
         <v>605.04</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="80">
         <f>J29+K29</f>
         <v>21021.040000000001</v>
       </c>
@@ -3113,9 +3136,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E31" s="22">
@@ -3126,9 +3149,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3161,14 +3184,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="80">
         <f>SUM(E32:E35)</f>
         <v>19728</v>
       </c>
-      <c r="K32" s="79">
-        <v>0</v>
-      </c>
-      <c r="L32" s="79">
+      <c r="K32" s="80">
+        <v>0</v>
+      </c>
+      <c r="L32" s="80">
         <f>J32+K32</f>
         <v>19728</v>
       </c>
@@ -3195,9 +3218,9 @@
         <f t="shared" si="4"/>
         <v>1.4093047540464169E-2</v>
       </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" s="13"/>
@@ -3209,9 +3232,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" s="22">
@@ -3222,17 +3245,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="33">
         <f>SUM(E4:E35)</f>
         <v>1399839.172</v>
@@ -3487,6 +3510,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="L19:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="J4:J11"/>
     <mergeCell ref="K4:K11"/>
@@ -3497,14 +3528,6 @@
     <mergeCell ref="J19:J28"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="J32:J35"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="L19:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L32:L35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3514,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92A1D7-81D0-4802-B32A-D594B42D4C7D}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3531,20 +3554,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3571,8 +3594,8 @@
         <v>73</v>
       </c>
       <c r="D4" s="41">
-        <f>SUM(B4:B1012)</f>
-        <v>328063.06999999995</v>
+        <f>SUM(B4:B1014)</f>
+        <v>343616.06999999995</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,7 +4272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>45028</v>
       </c>
@@ -4260,7 +4283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>45034</v>
       </c>
@@ -4271,7 +4294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>45035</v>
       </c>
@@ -4282,7 +4305,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>45035</v>
       </c>
@@ -4293,7 +4316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>45035</v>
       </c>
@@ -4302,6 +4325,63 @@
       </c>
       <c r="C69" s="17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="49">
+        <v>45043</v>
+      </c>
+      <c r="B70" s="41">
+        <v>10000</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="49">
+        <v>45043</v>
+      </c>
+      <c r="B71" s="41">
+        <v>1063</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="49">
+        <v>45043</v>
+      </c>
+      <c r="B72" s="41">
+        <v>1250</v>
+      </c>
+      <c r="C72" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="49">
+        <v>45043</v>
+      </c>
+      <c r="B73" s="41">
+        <v>480</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="72"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="49">
+        <v>45065</v>
+      </c>
+      <c r="B74" s="41">
+        <v>2760</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862F5DA-E7BD-4B7B-B885-513DFA335480}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4342,39 +4422,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -4447,21 +4527,21 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H26" si="0">VLOOKUP(D4,N:O,2,FALSE)</f>
+        <f t="shared" ref="H4:H25" si="0">VLOOKUP(D4,N:O,2,FALSE)</f>
         <v>0.54700000000000004</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>535418</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>321007.40999999997</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>856425.40999999992</v>
       </c>
@@ -4491,9 +4571,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -4523,9 +4603,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -4555,9 +4635,9 @@
         <f t="shared" si="1"/>
         <v>1.0659834394127047E-2</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -4587,9 +4667,9 @@
         <f t="shared" si="1"/>
         <v>0.27017648998837551</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -4620,9 +4700,9 @@
         <f t="shared" si="1"/>
         <v>5.662919103357935E-2</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -4652,9 +4732,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -4685,9 +4765,9 @@
         <f t="shared" si="1"/>
         <v>8.3439146208897114E-2</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13"/>
       <c r="O11" s="48"/>
     </row>
@@ -4700,9 +4780,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -4741,14 +4821,14 @@
         <f t="shared" si="1"/>
         <v>3.1460661685321863E-2</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>137256.79999999999</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>43355.53</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>180612.33</v>
       </c>
@@ -4781,9 +4861,9 @@
         <f t="shared" si="1"/>
         <v>4.9739604851416409E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -4813,9 +4893,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -4843,9 +4923,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -4875,9 +4955,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>95</v>
       </c>
@@ -4906,9 +4986,9 @@
         <f t="shared" si="1"/>
         <v>2.6700526786847076E-2</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
       <c r="N18" t="s">
         <v>102</v>
       </c>
@@ -4921,9 +5001,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4957,14 +5037,14 @@
         <f t="shared" si="1"/>
         <v>0.39566159990954547</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>599389.99</v>
       </c>
-      <c r="K20" s="79">
-        <v>0</v>
-      </c>
-      <c r="L20" s="79">
+      <c r="K20" s="80">
+        <v>0</v>
+      </c>
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>599389.99</v>
       </c>
@@ -4996,9 +5076,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="58" t="s">
@@ -5020,9 +5100,9 @@
         <f t="shared" si="1"/>
         <v>2.4251359083683154E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" s="58" t="s">
@@ -5046,9 +5126,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" t="s">
         <v>97</v>
       </c>
@@ -5076,9 +5156,9 @@
         <f t="shared" si="1"/>
         <v>9.4606030247877549E-3</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -5106,9 +5186,9 @@
         <f t="shared" si="1"/>
         <v>4.1820983033419232E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -5128,9 +5208,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -5143,9 +5223,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -5155,9 +5235,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -5174,9 +5254,9 @@
         <f t="shared" ref="I29:I36" si="3">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" s="66" t="s">
         <v>37</v>
       </c>
@@ -5216,14 +5296,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="79">
-        <v>0</v>
-      </c>
-      <c r="L30" s="79">
+      <c r="K30" s="80">
+        <v>0</v>
+      </c>
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>0</v>
       </c>
@@ -5247,9 +5327,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
       <c r="N31" t="s">
         <v>104</v>
       </c>
@@ -5270,9 +5350,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5305,14 +5385,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>0</v>
       </c>
@@ -5339,9 +5419,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -5353,9 +5433,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -5366,17 +5446,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1272064.79</v>
@@ -5591,6 +5671,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -5601,14 +5689,6 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5643,39 +5723,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -5755,14 +5835,14 @@
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>462890</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>343699.25</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>806589.25</v>
       </c>
@@ -5792,9 +5872,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -5824,9 +5904,9 @@
         <f t="shared" si="1"/>
         <v>0.31996122081723882</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -5856,9 +5936,9 @@
         <f t="shared" si="1"/>
         <v>1.2452703191147116E-2</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -5888,9 +5968,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -5917,9 +5997,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5949,9 +6029,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -5979,9 +6059,9 @@
         <f t="shared" si="1"/>
         <v>9.1426648061473492E-2</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13"/>
       <c r="O11" s="48"/>
     </row>
@@ -5994,9 +6074,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -6035,14 +6115,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>95856</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>55.03</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>95911.03</v>
       </c>
@@ -6075,9 +6155,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -6107,9 +6187,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -6137,9 +6217,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -6167,9 +6247,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>95</v>
       </c>
@@ -6197,9 +6277,9 @@
         <f t="shared" si="1"/>
         <v>8.7769582139014549E-2</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
       <c r="N18" t="s">
         <v>102</v>
       </c>
@@ -6216,9 +6296,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6252,14 +6332,14 @@
         <f t="shared" si="1"/>
         <v>0.35573119869583569</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>533386.35</v>
       </c>
-      <c r="K20" s="79">
-        <v>0</v>
-      </c>
-      <c r="L20" s="79">
+      <c r="K20" s="80">
+        <v>0</v>
+      </c>
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>533386.35</v>
       </c>
@@ -6291,9 +6371,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6316,9 +6396,9 @@
         <f t="shared" si="1"/>
         <v>3.0179858695697458E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="N22" t="s">
         <v>104</v>
       </c>
@@ -6348,9 +6428,9 @@
         <f t="shared" si="1"/>
         <v>3.3329293835129045E-2</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" t="s">
         <v>97</v>
       </c>
@@ -6378,9 +6458,9 @@
         <f t="shared" si="1"/>
         <v>1.1051774082143065E-2</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -6408,9 +6488,9 @@
         <f t="shared" si="1"/>
         <v>5.1111387736110916E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -6434,9 +6514,9 @@
         <f t="shared" si="1"/>
         <v>6.986332746209742E-3</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -6449,9 +6529,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -6460,9 +6540,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -6479,9 +6559,9 @@
         <f t="shared" ref="I29:I36" si="4">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" s="66" t="s">
         <v>37</v>
       </c>
@@ -6520,14 +6600,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="79">
-        <v>0</v>
-      </c>
-      <c r="L30" s="79">
+      <c r="K30" s="80">
+        <v>0</v>
+      </c>
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>0</v>
       </c>
@@ -6551,9 +6631,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
       <c r="N31" t="s">
         <v>105</v>
       </c>
@@ -6575,9 +6655,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6610,14 +6690,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>0</v>
       </c>
@@ -6644,9 +6724,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -6658,9 +6738,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -6671,17 +6751,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1092132.3500000001</v>
@@ -6896,14 +6976,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -6914,6 +6986,14 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6948,39 +7028,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -7060,14 +7140,14 @@
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>0.10472922677019549</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>429524.24</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>121163.63</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>550687.87</v>
       </c>
@@ -7097,9 +7177,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -7126,9 +7206,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -7158,9 +7238,9 @@
         <f t="shared" si="1"/>
         <v>1.031420783935158E-2</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -7190,9 +7270,9 @@
         <f t="shared" si="1"/>
         <v>0.13795797580120758</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -7219,9 +7299,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -7251,9 +7331,9 @@
         <f t="shared" si="1"/>
         <v>7.0088020992361597E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7271,9 +7351,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13"/>
       <c r="O11" s="48"/>
     </row>
@@ -7286,9 +7366,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -7327,14 +7407,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>374621.24</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>47374.22</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>421995.45999999996</v>
       </c>
@@ -7367,9 +7447,9 @@
         <f t="shared" si="1"/>
         <v>0.10642562511380835</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -7399,9 +7479,9 @@
         <f t="shared" si="1"/>
         <v>3.2359774011734614E-2</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -7429,9 +7509,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -7459,9 +7539,9 @@
         <f t="shared" si="1"/>
         <v>6.3609296362815565E-2</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>95</v>
       </c>
@@ -7489,9 +7569,9 @@
         <f t="shared" si="1"/>
         <v>7.9396533391134616E-2</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="58"/>
@@ -7503,9 +7583,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -7539,14 +7619,14 @@
         <f t="shared" si="1"/>
         <v>0.27591201005857918</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>504006.84</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="80">
         <v>25765.01</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>529771.85</v>
       </c>
@@ -7578,9 +7658,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="O21" s="65">
         <f>E8+E14+E10+E17+E4+K37</f>
         <v>836164.34</v>
@@ -7606,9 +7686,9 @@
         <f t="shared" si="1"/>
         <v>2.6073538135549877E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" s="58" t="s">
@@ -7632,9 +7712,9 @@
         <f t="shared" si="1"/>
         <v>2.2566090663692199E-2</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" t="s">
         <v>97</v>
       </c>
@@ -7662,9 +7742,9 @@
         <f t="shared" si="1"/>
         <v>9.1538594574245274E-3</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -7692,9 +7772,9 @@
         <f t="shared" si="1"/>
         <v>4.5409969903454452E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -7704,9 +7784,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -7719,9 +7799,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -7730,9 +7810,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -7749,9 +7829,9 @@
         <f t="shared" ref="I29:I36" si="4">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" s="66" t="s">
         <v>37</v>
       </c>
@@ -7790,14 +7870,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="79">
-        <v>0</v>
-      </c>
-      <c r="L30" s="79">
+      <c r="K30" s="80">
+        <v>0</v>
+      </c>
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>0</v>
       </c>
@@ -7821,9 +7901,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32" s="58"/>
@@ -7838,9 +7918,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7873,14 +7953,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>21276</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>21276</v>
       </c>
@@ -7907,9 +7987,9 @@
         <f t="shared" si="4"/>
         <v>1.6003871498690508E-2</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -7921,9 +8001,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -7934,17 +8014,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1329428.3199999998</v>
@@ -8159,14 +8239,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -8177,6 +8249,14 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8210,39 +8290,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -8322,14 +8402,14 @@
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>9.0555581509260852E-2</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>536360.15</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>852.73</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>537212.88</v>
       </c>
@@ -8362,9 +8442,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -8394,9 +8474,9 @@
         <f t="shared" si="1"/>
         <v>5.577731869119211E-2</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -8426,9 +8506,9 @@
         <f t="shared" si="1"/>
         <v>8.9655277467743759E-3</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -8458,9 +8538,9 @@
         <f t="shared" si="1"/>
         <v>0.12074735122713519</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -8487,9 +8567,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -8519,9 +8599,9 @@
         <f t="shared" si="1"/>
         <v>6.44889660572113E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -8543,9 +8623,9 @@
         <f t="shared" si="1"/>
         <v>1.8756334198272752E-2</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13"/>
       <c r="O11" s="48"/>
     </row>
@@ -8558,9 +8638,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -8599,14 +8679,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>415859.42000000004</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>618.20000000000005</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>416477.62000000005</v>
       </c>
@@ -8639,9 +8719,9 @@
         <f t="shared" si="1"/>
         <v>9.3148745192533855E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -8671,9 +8751,9 @@
         <f t="shared" si="1"/>
         <v>2.8857959902199651E-2</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -8703,9 +8783,9 @@
         <f t="shared" si="1"/>
         <v>2.012572745939786E-2</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -8735,9 +8815,9 @@
         <f t="shared" si="1"/>
         <v>5.8527801127553104E-2</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>95</v>
       </c>
@@ -8765,9 +8845,9 @@
         <f t="shared" si="1"/>
         <v>5.5135584113979778E-2</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="58" t="s">
@@ -8783,9 +8863,9 @@
         <f t="shared" si="1"/>
         <v>2.2775548669331201E-2</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8819,14 +8899,14 @@
         <f t="shared" si="1"/>
         <v>0.24149125262851603</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>519117.45000000007</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="80">
         <v>909</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>520026.45000000007</v>
       </c>
@@ -8854,9 +8934,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="58" t="s">
@@ -8878,9 +8958,9 @@
         <f t="shared" si="1"/>
         <v>2.2991514460242741E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" s="58" t="s">
@@ -8902,9 +8982,9 @@
         <f t="shared" si="1"/>
         <v>1.9451457341042311E-2</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -8925,9 +9005,9 @@
         <f t="shared" si="1"/>
         <v>7.9569058752622587E-3</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -8955,9 +9035,9 @@
         <f t="shared" si="1"/>
         <v>4.1782346916058748E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -8973,9 +9053,9 @@
         <f t="shared" si="1"/>
         <v>1.4067250648704566E-2</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -8988,9 +9068,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -8999,9 +9079,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -9018,9 +9098,9 @@
         <f t="shared" ref="I29:I36" si="4">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" t="s">
         <v>37</v>
       </c>
@@ -9059,14 +9139,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="79">
-        <v>0</v>
-      </c>
-      <c r="L30" s="79">
+      <c r="K30" s="80">
+        <v>0</v>
+      </c>
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>0</v>
       </c>
@@ -9084,9 +9164,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32" s="58"/>
@@ -9101,9 +9181,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9136,14 +9216,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>21492</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>21492</v>
       </c>
@@ -9170,9 +9250,9 @@
         <f t="shared" si="4"/>
         <v>1.4396826235331358E-2</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -9184,9 +9264,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -9197,17 +9277,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1492829.02</v>
@@ -9422,6 +9502,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -9432,14 +9520,6 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9473,39 +9553,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -9585,14 +9665,14 @@
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>8.1611442568331638E-2</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>509596.2</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="84">
         <v>26828.63</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>536424.82999999996</v>
       </c>
@@ -9625,9 +9705,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -9657,9 +9737,9 @@
         <f t="shared" si="1"/>
         <v>5.4687924002323682E-2</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -9689,9 +9769,9 @@
         <f t="shared" si="1"/>
         <v>9.1492895479640592E-3</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -9721,9 +9801,9 @@
         <f t="shared" si="1"/>
         <v>0.12524204828783908</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -9750,9 +9830,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -9782,9 +9862,9 @@
         <f t="shared" si="1"/>
         <v>6.5018033410719919E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -9811,9 +9891,9 @@
         <f t="shared" si="1"/>
         <v>1.4956363442012547E-2</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13" t="s">
         <v>92</v>
       </c>
@@ -9830,9 +9910,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -9871,14 +9951,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>334537.08999999997</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>1900.39</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>336437.48</v>
       </c>
@@ -9911,9 +9991,9 @@
         <f t="shared" si="1"/>
         <v>9.6616112277361874E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -9943,9 +10023,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -9975,9 +10055,9 @@
         <f t="shared" si="1"/>
         <v>1.9732649034002996E-2</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -10007,9 +10087,9 @@
         <f t="shared" si="1"/>
         <v>5.9007963095443289E-2</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>95</v>
       </c>
@@ -10039,9 +10119,9 @@
         <f t="shared" si="1"/>
         <v>8.1749067260689697E-3</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -10054,9 +10134,9 @@
         <f t="shared" si="1"/>
         <v>4.6671189335181835E-2</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -10090,14 +10170,14 @@
         <f t="shared" si="1"/>
         <v>0.25048051833367685</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>563928.30000000005</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="80">
         <v>1825.23</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>565753.53</v>
       </c>
@@ -10125,9 +10205,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -10148,9 +10228,9 @@
         <f t="shared" si="1"/>
         <v>2.230593488801021E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -10171,9 +10251,9 @@
         <f t="shared" si="1"/>
         <v>1.9071548180557184E-2</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -10194,9 +10274,9 @@
         <f t="shared" si="1"/>
         <v>8.119994473818103E-3</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -10227,9 +10307,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -10256,9 +10336,9 @@
         <f t="shared" si="1"/>
         <v>7.4554736467671939E-2</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -10288,9 +10368,9 @@
         <f t="shared" si="1"/>
         <v>1.3519561653794365E-2</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -10299,9 +10379,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -10318,9 +10398,9 @@
         <f t="shared" ref="I29:I36" si="4">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" t="s">
         <v>37</v>
       </c>
@@ -10359,14 +10439,14 @@
         <f t="shared" si="4"/>
         <v>1.5844730831183845E-2</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>23026</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="80">
         <v>605.04</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>23631.040000000001</v>
       </c>
@@ -10380,9 +10460,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E32" s="22">
@@ -10393,9 +10473,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -10428,14 +10508,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>22140</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>22140</v>
       </c>
@@ -10462,9 +10542,9 @@
         <f t="shared" si="4"/>
         <v>1.5235053444037626E-2</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -10476,9 +10556,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -10489,17 +10569,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1453227.59</v>
@@ -10714,14 +10794,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -10732,6 +10804,14 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10765,39 +10845,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -10877,14 +10957,14 @@
         <f t="shared" ref="I4:I27" si="1">E4/$E$37</f>
         <v>9.7250246547288616E-2</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E11)</f>
         <v>527616.52599999995</v>
       </c>
-      <c r="K4" s="81">
-        <v>0</v>
-      </c>
-      <c r="L4" s="81">
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>527616.52599999995</v>
       </c>
@@ -10917,9 +10997,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -10949,9 +11029,9 @@
         <f t="shared" si="1"/>
         <v>5.4164141754919806E-2</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -10981,9 +11061,9 @@
         <f t="shared" si="1"/>
         <v>9.0282711218833429E-3</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -11013,9 +11093,9 @@
         <f t="shared" si="1"/>
         <v>0.12406685416665331</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -11042,9 +11122,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -11074,9 +11154,9 @@
         <f t="shared" si="1"/>
         <v>6.2334014073294801E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -11103,9 +11183,9 @@
         <f t="shared" si="1"/>
         <v>1.4901995203078253E-2</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13" t="s">
         <v>92</v>
       </c>
@@ -11122,9 +11202,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="N12" s="13" t="s">
         <v>33</v>
       </c>
@@ -11163,14 +11243,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="84">
         <f>SUM(E13:E19)</f>
         <v>326686.02999999997</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="85">
         <v>1900.39</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="84">
         <f>J13+K13</f>
         <v>328586.42</v>
       </c>
@@ -11203,9 +11283,9 @@
         <f t="shared" si="1"/>
         <v>9.5709526280786425E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
@@ -11235,9 +11315,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -11267,9 +11347,9 @@
         <f t="shared" si="1"/>
         <v>1.9543656464860622E-2</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -11299,9 +11379,9 @@
         <f t="shared" si="1"/>
         <v>5.6572046385847383E-2</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
       <c r="N17" t="s">
         <v>91</v>
       </c>
@@ -11331,9 +11411,9 @@
         <f t="shared" si="1"/>
         <v>5.6563818921277018E-3</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -11346,9 +11426,9 @@
         <f t="shared" si="1"/>
         <v>4.6501533764630829E-2</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="81"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -11382,14 +11462,14 @@
         <f t="shared" si="1"/>
         <v>0.24813016366732091</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="80">
         <f>SUM(E20:E29)</f>
         <v>560506.97</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="80">
         <v>1825.23</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="80">
         <f>J20+K20</f>
         <v>562332.19999999995</v>
       </c>
@@ -11417,9 +11497,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -11440,9 +11520,9 @@
         <f t="shared" si="1"/>
         <v>2.2038086598186561E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -11463,9 +11543,9 @@
         <f t="shared" si="1"/>
         <v>1.8888887409468869E-2</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -11486,9 +11566,9 @@
         <f t="shared" si="1"/>
         <v>8.0125906206714673E-3</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>38</v>
       </c>
@@ -11519,9 +11599,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" s="4" t="s">
         <v>39</v>
       </c>
@@ -11548,9 +11628,9 @@
         <f t="shared" si="1"/>
         <v>7.360358366855578E-2</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>40</v>
       </c>
@@ -11580,9 +11660,9 @@
         <f t="shared" si="1"/>
         <v>1.3622624462386096E-2</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -11591,9 +11671,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -11610,9 +11690,9 @@
         <f t="shared" ref="I29:I36" si="4">E29/$E$37</f>
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
       <c r="N29" t="s">
         <v>37</v>
       </c>
@@ -11651,14 +11731,14 @@
         <f t="shared" si="4"/>
         <v>1.5190642085088649E-2</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="80">
         <f>SUM(E30:E32)</f>
         <v>22156</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="80">
         <v>605.04</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="80">
         <f>J30+K30</f>
         <v>22761.040000000001</v>
       </c>
@@ -11672,9 +11752,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E32" s="22">
@@ -11685,9 +11765,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -11720,14 +11800,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="80">
         <f>SUM(E33:E36)</f>
         <v>21564</v>
       </c>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
+      <c r="K33" s="80">
+        <v>0</v>
+      </c>
+      <c r="L33" s="80">
         <f>J33+K33</f>
         <v>21564</v>
       </c>
@@ -11754,9 +11834,9 @@
         <f t="shared" si="4"/>
         <v>1.4784753832950515E-2</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="13"/>
@@ -11768,9 +11848,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" s="22">
@@ -11781,17 +11861,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>1458529.5260000001</v>
@@ -12006,6 +12086,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="L4:L12"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
     <mergeCell ref="L33:L36"/>
@@ -12016,14 +12104,6 @@
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="L30:L32"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J12"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="L4:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12057,39 +12137,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -12169,14 +12249,14 @@
         <f t="shared" ref="I4:I26" si="0">E4/$E$36</f>
         <v>8.2680806275908986E-2</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="84">
         <f>SUM(E4:E10)</f>
         <v>528945.93599999999</v>
       </c>
-      <c r="K4" s="81">
-        <v>0</v>
-      </c>
-      <c r="L4" s="81">
+      <c r="K4" s="84">
+        <v>0</v>
+      </c>
+      <c r="L4" s="84">
         <f>J4+K4</f>
         <v>528945.93599999999</v>
       </c>
@@ -12209,9 +12289,9 @@
         <f t="shared" si="0"/>
         <v>2.3103775359411688E-2</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
@@ -12241,9 +12321,9 @@
         <f t="shared" si="0"/>
         <v>5.253537999381952E-2</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
@@ -12273,9 +12353,9 @@
         <f t="shared" si="0"/>
         <v>8.9947042348807512E-3</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
       <c r="N7" s="13" t="s">
         <v>7</v>
       </c>
@@ -12305,9 +12385,9 @@
         <f t="shared" si="0"/>
         <v>0.12453770630953261</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="N8" s="13" t="s">
         <v>12</v>
       </c>
@@ -12334,9 +12414,9 @@
         <f t="shared" si="0"/>
         <v>1.0325084063840775E-2</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
@@ -12366,9 +12446,9 @@
         <f t="shared" si="0"/>
         <v>6.0453050665209597E-2</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="N10" s="13" t="s">
         <v>10</v>
       </c>
@@ -12385,9 +12465,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
       <c r="N11" s="13" t="s">
         <v>33</v>
       </c>
@@ -12426,14 +12506,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="84">
         <f>SUM(E12:E18)</f>
         <v>323463.04000000004</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="85">
         <v>14300.46</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="84">
         <f>J12+K12</f>
         <v>337763.50000000006</v>
       </c>
@@ -12466,9 +12546,9 @@
         <f t="shared" si="0"/>
         <v>9.6072758151586807E-2</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="81"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="84"/>
       <c r="N13" s="13" t="s">
         <v>26</v>
       </c>
@@ -12498,9 +12578,9 @@
         <f t="shared" si="0"/>
         <v>4.6207550718823376E-2</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="84"/>
       <c r="N14" t="s">
         <v>34</v>
       </c>
@@ -12530,9 +12610,9 @@
         <f t="shared" si="0"/>
         <v>1.895596211042817E-2</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="81"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84"/>
       <c r="N15" t="s">
         <v>35</v>
       </c>
@@ -12562,9 +12642,9 @@
         <f t="shared" si="0"/>
         <v>5.4864953544896101E-2</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="84"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
@@ -12584,9 +12664,9 @@
         <f t="shared" si="0"/>
         <v>5.6559687452565708E-3</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E18" s="22">
@@ -12597,9 +12677,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -12633,14 +12713,14 @@
         <f t="shared" si="0"/>
         <v>0.24907185450054548</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="80">
         <f>SUM(E19:E28)</f>
         <v>564254.09000000008</v>
       </c>
-      <c r="K19" s="79">
-        <v>0</v>
-      </c>
-      <c r="L19" s="79">
+      <c r="K19" s="80">
+        <v>0</v>
+      </c>
+      <c r="L19" s="80">
         <f>J19+K19</f>
         <v>564254.09000000008</v>
       </c>
@@ -12668,9 +12748,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -12691,9 +12771,9 @@
         <f t="shared" si="0"/>
         <v>2.1662977309104874E-2</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -12714,9 +12794,9 @@
         <f t="shared" si="0"/>
         <v>1.8320882516831994E-2</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -12737,9 +12817,9 @@
         <f t="shared" si="0"/>
         <v>7.9828000084566676E-3</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" s="4" t="s">
         <v>38</v>
       </c>
@@ -12770,9 +12850,9 @@
         <f t="shared" si="0"/>
         <v>1.5925836842704259E-2</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="4" t="s">
         <v>39</v>
       </c>
@@ -12799,9 +12879,9 @@
         <f t="shared" si="0"/>
         <v>6.0073243794316E-2</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="N25" t="s">
         <v>40</v>
       </c>
@@ -12831,9 +12911,9 @@
         <f t="shared" si="0"/>
         <v>1.3799192594487789E-2</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="N26" t="s">
         <v>41</v>
       </c>
@@ -12842,9 +12922,9 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="N27" t="s">
         <v>36</v>
       </c>
@@ -12861,9 +12941,9 @@
         <f t="shared" ref="I28:I35" si="3">E28/$E$36</f>
         <v>0</v>
       </c>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
       <c r="N28" t="s">
         <v>37</v>
       </c>
@@ -12902,14 +12982,14 @@
         <f t="shared" si="3"/>
         <v>1.4732256044462842E-2</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="80">
         <f>SUM(E29:E31)</f>
         <v>21489</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="80">
         <v>605.04</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="80">
         <f>J29+K29</f>
         <v>22094.04</v>
       </c>
@@ -12923,9 +13003,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E31" s="22">
@@ -12936,9 +13016,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -12971,14 +13051,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="80">
         <f>SUM(E32:E35)</f>
         <v>20484</v>
       </c>
-      <c r="K32" s="79">
-        <v>0</v>
-      </c>
-      <c r="L32" s="79">
+      <c r="K32" s="80">
+        <v>0</v>
+      </c>
+      <c r="L32" s="80">
         <f>J32+K32</f>
         <v>20484</v>
       </c>
@@ -13005,9 +13085,9 @@
         <f t="shared" si="3"/>
         <v>1.4043256215495225E-2</v>
       </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" s="13"/>
@@ -13019,9 +13099,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" s="22">
@@ -13032,17 +13112,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="33">
         <f>SUM(E4:E35)</f>
         <v>1458636.0659999999</v>
@@ -13257,14 +13337,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
     <mergeCell ref="J32:J35"/>
     <mergeCell ref="K32:K35"/>
     <mergeCell ref="L32:L35"/>
@@ -13275,6 +13347,14 @@
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
